--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6708" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6708" uniqueCount="670">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1374,11 +1374,11 @@
     <t>External identifiers for this item.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:system}
+    <t xml:space="preserve">value:system}
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.system pattern</t>
+    <t>Slice based on the identifier.system value</t>
   </si>
   <si>
     <t>.id</t>
@@ -1647,10 +1647,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
   </si>
   <si>
     <t>ActiviteSociale.discipineEquipementSociale</t>
@@ -19603,7 +19599,7 @@
         <v>76</v>
       </c>
       <c r="AB156" t="s" s="2">
-        <v>529</v>
+        <v>143</v>
       </c>
       <c r="AC156" s="2"/>
       <c r="AD156" t="s" s="2">
@@ -19628,10 +19624,10 @@
         <v>98</v>
       </c>
       <c r="AK156" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AL156" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>76</v>
@@ -19639,13 +19635,13 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>523</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D157" t="s" s="2">
         <v>524</v>
@@ -19670,7 +19666,7 @@
         <v>312</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M157" t="s" s="2">
         <v>526</v>
@@ -19704,7 +19700,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>76</v>
@@ -19740,7 +19736,7 @@
         <v>76</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>76</v>
@@ -19748,10 +19744,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -19777,10 +19773,10 @@
         <v>312</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
@@ -19810,11 +19806,11 @@
         <v>175</v>
       </c>
       <c r="Y158" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="Z158" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="Z158" t="s" s="2">
-        <v>540</v>
-      </c>
       <c r="AA158" t="s" s="2">
         <v>76</v>
       </c>
@@ -19831,7 +19827,7 @@
         <v>76</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -19849,7 +19845,7 @@
         <v>76</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>76</v>
@@ -19857,10 +19853,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -19883,13 +19879,13 @@
         <v>87</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="M159" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -19940,7 +19936,7 @@
         <v>76</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -19958,18 +19954,18 @@
         <v>76</v>
       </c>
       <c r="AL159" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM159" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>546</v>
       </c>
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19995,10 +19991,10 @@
         <v>100</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M160" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -20049,7 +20045,7 @@
         <v>76</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -20067,7 +20063,7 @@
         <v>76</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>76</v>
@@ -20075,10 +20071,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20104,13 +20100,13 @@
         <v>100</v>
       </c>
       <c r="L161" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M161" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
@@ -20160,7 +20156,7 @@
         <v>76</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -20178,7 +20174,7 @@
         <v>76</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>76</v>
@@ -20186,10 +20182,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20212,13 +20208,13 @@
         <v>76</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -20269,7 +20265,7 @@
         <v>76</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -20287,7 +20283,7 @@
         <v>76</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>76</v>
@@ -20295,10 +20291,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20321,13 +20317,13 @@
         <v>87</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -20378,7 +20374,7 @@
         <v>76</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -20396,7 +20392,7 @@
         <v>76</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>76</v>
@@ -20404,10 +20400,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -20430,16 +20426,16 @@
         <v>76</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L164" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="M164" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" t="s" s="2">
@@ -20489,7 +20485,7 @@
         <v>76</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>77</v>
@@ -20507,7 +20503,7 @@
         <v>76</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>76</v>
@@ -20515,10 +20511,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -20541,16 +20537,16 @@
         <v>76</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="N165" t="s" s="2">
         <v>574</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
@@ -20600,7 +20596,7 @@
         <v>76</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>77</v>
@@ -20618,7 +20614,7 @@
         <v>76</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>76</v>
@@ -20626,10 +20622,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -20655,13 +20651,13 @@
         <v>312</v>
       </c>
       <c r="L166" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
@@ -20690,10 +20686,10 @@
         <v>161</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>76</v>
@@ -20711,7 +20707,7 @@
         <v>76</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>77</v>
@@ -20729,7 +20725,7 @@
         <v>76</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>76</v>
@@ -20737,10 +20733,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -20763,13 +20759,13 @@
         <v>76</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -20820,7 +20816,7 @@
         <v>76</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>77</v>
@@ -20846,10 +20842,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -20955,10 +20951,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21066,14 +21062,14 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
@@ -21095,10 +21091,10 @@
         <v>107</v>
       </c>
       <c r="L170" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M170" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N170" t="s" s="2">
         <v>110</v>
@@ -21153,7 +21149,7 @@
         <v>76</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>77</v>
@@ -21179,10 +21175,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21208,10 +21204,10 @@
         <v>312</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>595</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -21242,7 +21238,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>76</v>
@@ -21260,7 +21256,7 @@
         <v>76</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>77</v>
@@ -21275,10 +21271,10 @@
         <v>98</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>76</v>
@@ -21286,10 +21282,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21312,16 +21308,16 @@
         <v>76</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L172" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" t="s" s="2">
@@ -21371,7 +21367,7 @@
         <v>76</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>77</v>
@@ -21389,7 +21385,7 @@
         <v>76</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>76</v>
@@ -21397,10 +21393,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -21426,13 +21422,13 @@
         <v>312</v>
       </c>
       <c r="L173" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
@@ -21461,11 +21457,11 @@
         <v>161</v>
       </c>
       <c r="Y173" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Z173" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="Z173" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="AA173" t="s" s="2">
         <v>76</v>
       </c>
@@ -21482,7 +21478,7 @@
         <v>76</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>77</v>
@@ -21500,7 +21496,7 @@
         <v>76</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>76</v>
@@ -21508,10 +21504,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -21537,13 +21533,13 @@
         <v>312</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>612</v>
       </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
@@ -21573,7 +21569,7 @@
       </c>
       <c r="Y174" s="2"/>
       <c r="Z174" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>76</v>
@@ -21591,7 +21587,7 @@
         <v>76</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>77</v>
@@ -21609,7 +21605,7 @@
         <v>76</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>76</v>
@@ -21617,10 +21613,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -21646,13 +21642,13 @@
         <v>312</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -21702,7 +21698,7 @@
         <v>76</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>77</v>
@@ -21728,10 +21724,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -21757,10 +21753,10 @@
         <v>312</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -21790,11 +21786,11 @@
         <v>161</v>
       </c>
       <c r="Y176" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z176" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="Z176" t="s" s="2">
-        <v>624</v>
-      </c>
       <c r="AA176" t="s" s="2">
         <v>76</v>
       </c>
@@ -21811,7 +21807,7 @@
         <v>76</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>77</v>
@@ -21829,7 +21825,7 @@
         <v>76</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>76</v>
@@ -21837,10 +21833,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -21866,10 +21862,10 @@
         <v>270</v>
       </c>
       <c r="L177" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="M177" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
@@ -21920,7 +21916,7 @@
         <v>76</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -21938,7 +21934,7 @@
         <v>76</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>76</v>
@@ -21946,10 +21942,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -21972,16 +21968,16 @@
         <v>76</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
@@ -22031,7 +22027,7 @@
         <v>76</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -22049,7 +22045,7 @@
         <v>76</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>76</v>
@@ -22057,10 +22053,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22166,10 +22162,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -22277,14 +22273,14 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
@@ -22306,10 +22302,10 @@
         <v>107</v>
       </c>
       <c r="L181" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M181" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N181" t="s" s="2">
         <v>110</v>
@@ -22364,7 +22360,7 @@
         <v>76</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>77</v>
@@ -22390,10 +22386,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -22419,10 +22415,10 @@
         <v>171</v>
       </c>
       <c r="L182" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>637</v>
-      </c>
-      <c r="M182" t="s" s="2">
-        <v>638</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
@@ -22452,11 +22448,11 @@
         <v>313</v>
       </c>
       <c r="Y182" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="Z182" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="Z182" t="s" s="2">
-        <v>640</v>
-      </c>
       <c r="AA182" t="s" s="2">
         <v>76</v>
       </c>
@@ -22473,7 +22469,7 @@
         <v>76</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>77</v>
@@ -22491,7 +22487,7 @@
         <v>76</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>76</v>
@@ -22499,10 +22495,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -22528,10 +22524,10 @@
         <v>270</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22582,7 +22578,7 @@
         <v>76</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>77</v>
@@ -22600,7 +22596,7 @@
         <v>76</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>76</v>
@@ -22608,10 +22604,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22634,16 +22630,16 @@
         <v>76</v>
       </c>
       <c r="K184" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L184" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L184" t="s" s="2">
+      <c r="M184" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="N184" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
@@ -22693,7 +22689,7 @@
         <v>76</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>77</v>
@@ -22711,7 +22707,7 @@
         <v>76</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>76</v>
@@ -22719,10 +22715,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22745,16 +22741,16 @@
         <v>76</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L185" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M185" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="N185" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -22804,7 +22800,7 @@
         <v>76</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>77</v>
@@ -22822,7 +22818,7 @@
         <v>76</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>76</v>
@@ -22830,10 +22826,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -22856,13 +22852,13 @@
         <v>76</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L186" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>654</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -22913,7 +22909,7 @@
         <v>76</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>77</v>
@@ -22931,7 +22927,7 @@
         <v>76</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>76</v>
@@ -22939,10 +22935,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -23048,10 +23044,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -23159,14 +23155,14 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -23188,10 +23184,10 @@
         <v>107</v>
       </c>
       <c r="L189" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M189" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>110</v>
@@ -23246,7 +23242,7 @@
         <v>76</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>77</v>
@@ -23272,10 +23268,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -23301,10 +23297,10 @@
         <v>100</v>
       </c>
       <c r="L190" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="M190" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -23355,7 +23351,7 @@
         <v>76</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>86</v>
@@ -23381,10 +23377,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -23410,10 +23406,10 @@
         <v>234</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -23464,7 +23460,7 @@
         <v>76</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>77</v>
@@ -23482,7 +23478,7 @@
         <v>76</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>76</v>
@@ -23490,10 +23486,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -23519,10 +23515,10 @@
         <v>100</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>665</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>666</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -23573,7 +23569,7 @@
         <v>76</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>77</v>
@@ -23591,7 +23587,7 @@
         <v>76</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>76</v>
@@ -23599,10 +23595,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -23625,13 +23621,13 @@
         <v>76</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
@@ -23682,7 +23678,7 @@
         <v>76</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -992,7 +992,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/VS-TRE-R301-SourceInformationInstallation</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J261-SourceInformationInstallation-RASS/FHIR/JDV-J261-SourceInformationInstallation-RASS</t>
   </si>
   <si>
     <t>HealthcareService.extension:as-ext-installation.url</t>
@@ -2432,7 +2432,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="115.26171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="118.76953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
+++ b/main/ig/StructureDefinition-as-dp-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
